--- a/ig/nr/addTests/StructureDefinition-fr-patient.xlsx
+++ b/ig/nr/addTests/StructureDefinition-fr-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T09:04:55+00:00</t>
+    <t>2023-03-23T09:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/addTests/StructureDefinition-fr-patient.xlsx
+++ b/ig/nr/addTests/StructureDefinition-fr-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T09:05:09+00:00</t>
+    <t>2023-03-23T14:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr/addTests/StructureDefinition-fr-patient.xlsx
+++ b/ig/nr/addTests/StructureDefinition-fr-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:43:50+00:00</t>
+    <t>2023-03-23T15:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
